--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3150.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3150.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229280198786542</v>
+        <v>1.051202535629272</v>
       </c>
       <c r="B1">
-        <v>2.445681625087978</v>
+        <v>1.740820527076721</v>
       </c>
       <c r="C1">
-        <v>3.13632073481608</v>
+        <v>4.53245210647583</v>
       </c>
       <c r="D1">
-        <v>3.609292992500041</v>
+        <v>2.50859546661377</v>
       </c>
       <c r="E1">
-        <v>2.906791016990307</v>
+        <v>1.292465090751648</v>
       </c>
     </row>
   </sheetData>
